--- a/results/dev phase/result.xlsx
+++ b/results/dev phase/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/GitHub/BLP25-Task-2/results/dev phase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53B1A1B-DC5D-8243-9611-CA950142146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559E6DD-1280-E847-ADB7-CC0D78274716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="880" windowWidth="28480" windowHeight="17300" xr2:uid="{8277C5D4-4CA4-9343-A068-9845D89C3C55}"/>
   </bookViews>
@@ -462,9 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627ACA8F-3F11-ED4E-AE6A-FF98F35EC729}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -610,9 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCAA2B6-7EF0-8741-ADB2-84B2199C13C4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
